--- a/results/I3_N5_M3_T15_C100_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1842.243449249399</v>
+        <v>163.1550089908196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.511999845504761</v>
+        <v>0.690000057220459</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>25.15500899081956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.599913646734549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.936760181333766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1664.049999999892</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.08</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,50 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -918,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11.43123270582124</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87750147232089</v>
+        <v>11.22165433847207</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.57904977333279</v>
       </c>
     </row>
     <row r="7">
@@ -988,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,118 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000001202</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1240,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.12999999998127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1251,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000001109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1262,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.90999999998088</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1273,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3749999999963</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1295,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0399999999991</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1306,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9249999999975</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1317,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4349999999977</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1328,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7049999999981</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1339,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.059999999948</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1350,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999757</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7150000000566</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1372,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.839999999956</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1383,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999563</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1394,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.5150000000067</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.91999999995059</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1416,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.6450000000077</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1427,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.7450000000063</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1438,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.4900000000071</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -1449,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>145.394999999975</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1460,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.4750000000222</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -1471,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>167.3200000000597</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1482,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>168.770000000015</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1493,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>166.2649999999212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1504,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>145.3950000000005</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -1515,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.4750000000514</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1526,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.320000000078</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -1537,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>168.7700000000424</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1548,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>166.2649999999091</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -1559,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.3749999999891</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1570,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>103.0399999999906</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -1581,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.924999999989</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1592,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>105.4349999999892</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1603,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>105.7049999999902</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -1614,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.0599999999378</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -1625,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>189.4350000000099</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -1636,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>206.7150000000926</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -1647,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.8399999999463</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -1658,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.2699999999424</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45.39499999999919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63.47500000005004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1727,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>67.32000000007667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1738,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>68.77000000004102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>66.26499999990779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1760,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.374999999989058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1771,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.039999999990613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1782,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.924999999989012</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1793,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.43499999998923</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1804,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.704999999990235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1815,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.0599999999364</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1826,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.43500000000847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1837,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>106.7150000000912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1848,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.83999999994631</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1859,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>103.269999999941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1972,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1983,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1994,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2005,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2184,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2222,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2233,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2244,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2255,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2266,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2277,144 +2121,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
